--- a/KatalonData/vrelay_2022.xlsx
+++ b/KatalonData/vrelay_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE8F66-2970-4421-84C6-63E87034A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6B1E4-1649-497A-A19A-0F5CD052C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A809D80D-B297-1A48-B33C-8C379702CACE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1168">
   <si>
     <t>application_id</t>
   </si>
@@ -2087,9 +2087,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Sat Oct 29 16:59:37 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 17:00:16 EDT 2022</t>
   </si>
   <si>
@@ -2117,18 +2114,12 @@
     <t>Sat Oct 29 17:05:33 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 17:06:11 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 17:06:55 EDT 2022</t>
   </si>
   <si>
     <t>Sat Oct 29 17:07:33 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 17:08:11 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 17:08:53 EDT 2022</t>
   </si>
   <si>
@@ -2186,9 +2177,6 @@
     <t>Sat Oct 29 17:20:18 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 17:21:00 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 17:21:43 EDT 2022</t>
   </si>
   <si>
@@ -2315,9 +2303,6 @@
     <t>Sat Oct 29 17:48:07 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 17:48:46 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 17:49:32 EDT 2022</t>
   </si>
   <si>
@@ -2420,9 +2405,6 @@
     <t>Sat Oct 29 18:15:49 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 18:16:33 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 18:17:10 EDT 2022</t>
   </si>
   <si>
@@ -2471,9 +2453,6 @@
     <t>Sat Oct 29 18:27:14 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 18:27:58 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 18:28:38 EDT 2022</t>
   </si>
   <si>
@@ -2495,9 +2474,6 @@
     <t>Sat Oct 29 18:32:37 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 18:33:19 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 18:33:57 EDT 2022</t>
   </si>
   <si>
@@ -2516,9 +2492,6 @@
     <t>Sat Oct 29 18:37:09 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 18:37:46 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 18:38:24 EDT 2022</t>
   </si>
   <si>
@@ -2669,9 +2642,6 @@
     <t>Sat Oct 29 19:35:15 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 19:35:56 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 19:36:36 EDT 2022</t>
   </si>
   <si>
@@ -2702,9 +2672,6 @@
     <t>Sat Oct 29 19:42:36 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 19:43:14 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 19:43:55 EDT 2022</t>
   </si>
   <si>
@@ -2921,9 +2888,6 @@
     <t>Sat Oct 29 20:32:15 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 20:32:55 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 20:33:35 EDT 2022</t>
   </si>
   <si>
@@ -3143,24 +3107,12 @@
     <t>Sat Oct 29 23:16:14 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 23:16:57 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 23:17:36 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 23:18:16 EDT 2022</t>
-  </si>
-  <si>
-    <t>Sat Oct 29 23:18:54 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 23:19:32 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 23:20:12 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 23:20:50 EDT 2022</t>
   </si>
   <si>
@@ -3311,9 +3263,6 @@
     <t>Sat Oct 29 23:55:45 EDT 2022</t>
   </si>
   <si>
-    <t>Sat Oct 29 23:56:28 EDT 2022</t>
-  </si>
-  <si>
     <t>Sat Oct 29 23:57:07 EDT 2022</t>
   </si>
   <si>
@@ -3458,9 +3407,6 @@
     <t>Sun Oct 30 00:29:08 EDT 2022</t>
   </si>
   <si>
-    <t>Sun Oct 30 00:29:48 EDT 2022</t>
-  </si>
-  <si>
     <t>Sun Oct 30 00:30:26 EDT 2022</t>
   </si>
   <si>
@@ -3491,12 +3437,6 @@
     <t>Sun Oct 30 00:36:34 EDT 2022</t>
   </si>
   <si>
-    <t>Sun Oct 30 00:37:12 EDT 2022</t>
-  </si>
-  <si>
-    <t>Sun Oct 30 00:37:51 EDT 2022</t>
-  </si>
-  <si>
     <t>Sun Oct 30 00:38:31 EDT 2022</t>
   </si>
   <si>
@@ -3543,6 +3483,66 @@
   </si>
   <si>
     <t>Sun Oct 30 00:48:24 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 16:59:34 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:00:13 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:00:55 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:01:37 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:02:23 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:03:09 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:03:47 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:04:26 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:05:03 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:05:43 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:06:22 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:07:02 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:07:48 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:08:26 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:09:04 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:09:42 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:10:22 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:11:03 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:11:42 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Oct 30 17:12:20 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -3912,10 +3912,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342F00F0-EE68-F143-A911-FE1EA854A2ED}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3954,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>678</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>678</v>
       </c>
@@ -4000,12 +4001,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>681</v>
       </c>
       <c r="B4" t="s">
-        <v>682</v>
+        <v>1148</v>
       </c>
       <c r="D4">
         <v>26</v>
@@ -4023,12 +4024,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>678</v>
       </c>
       <c r="B5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D5">
         <v>136</v>
@@ -4046,12 +4047,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>678</v>
       </c>
       <c r="B6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D6">
         <v>182</v>
@@ -4069,12 +4070,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>678</v>
       </c>
       <c r="B7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D7">
         <v>244</v>
@@ -4092,12 +4093,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>678</v>
       </c>
       <c r="B8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D8">
         <v>247</v>
@@ -4115,12 +4116,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>678</v>
       </c>
       <c r="B9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D9">
         <v>286</v>
@@ -4138,12 +4139,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>678</v>
       </c>
       <c r="B10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D10">
         <v>289</v>
@@ -4161,12 +4162,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>678</v>
       </c>
       <c r="B11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D11">
         <v>291</v>
@@ -4184,12 +4185,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>678</v>
       </c>
       <c r="B12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D12">
         <v>311</v>
@@ -4207,12 +4208,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>678</v>
       </c>
       <c r="B13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D13">
         <v>315</v>
@@ -4230,12 +4231,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>681</v>
       </c>
       <c r="B14" t="s">
-        <v>692</v>
+        <v>1149</v>
       </c>
       <c r="D14">
         <v>477</v>
@@ -4253,12 +4254,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>678</v>
       </c>
       <c r="B15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D15">
         <v>484</v>
@@ -4276,12 +4277,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>678</v>
       </c>
       <c r="B16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D16">
         <v>497</v>
@@ -4299,12 +4300,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>681</v>
       </c>
       <c r="B17" t="s">
-        <v>695</v>
+        <v>1150</v>
       </c>
       <c r="D17">
         <v>502</v>
@@ -4322,12 +4323,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>678</v>
       </c>
       <c r="B18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D18">
         <v>511</v>
@@ -4345,12 +4346,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>678</v>
       </c>
       <c r="B19" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D19">
         <v>527</v>
@@ -4368,12 +4369,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>678</v>
       </c>
       <c r="B20" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D20">
         <v>564</v>
@@ -4391,12 +4392,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>678</v>
       </c>
       <c r="B21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D21">
         <v>565</v>
@@ -4414,12 +4415,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>678</v>
       </c>
       <c r="B22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D22">
         <v>666</v>
@@ -4437,12 +4438,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>678</v>
       </c>
       <c r="B23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D23">
         <v>743</v>
@@ -4460,12 +4461,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>678</v>
       </c>
       <c r="B24" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D24">
         <v>866</v>
@@ -4483,12 +4484,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>678</v>
       </c>
       <c r="B25" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D25">
         <v>867</v>
@@ -4506,12 +4507,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>678</v>
       </c>
       <c r="B26" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D26">
         <v>868</v>
@@ -4529,12 +4530,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>678</v>
       </c>
       <c r="B27" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D27">
         <v>887</v>
@@ -4552,12 +4553,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>678</v>
       </c>
       <c r="B28" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D28">
         <v>888</v>
@@ -4575,12 +4576,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>678</v>
       </c>
       <c r="B29" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D29">
         <v>907</v>
@@ -4598,12 +4599,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>678</v>
       </c>
       <c r="B30" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D30">
         <v>926</v>
@@ -4621,12 +4622,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>678</v>
       </c>
       <c r="B31" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D31">
         <v>927</v>
@@ -4644,12 +4645,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>678</v>
       </c>
       <c r="B32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D32">
         <v>928</v>
@@ -4667,12 +4668,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>678</v>
       </c>
       <c r="B33" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D33">
         <v>986</v>
@@ -4690,12 +4691,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>678</v>
       </c>
       <c r="B34" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D34">
         <v>1012</v>
@@ -4713,12 +4714,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>678</v>
       </c>
       <c r="B35" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D35">
         <v>1092</v>
@@ -4736,12 +4737,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>678</v>
       </c>
       <c r="B36" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D36">
         <v>1171</v>
@@ -4759,12 +4760,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>681</v>
       </c>
       <c r="B37" t="s">
-        <v>715</v>
+        <v>1151</v>
       </c>
       <c r="D37">
         <v>1181</v>
@@ -4782,12 +4783,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>678</v>
       </c>
       <c r="B38" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D38">
         <v>1203</v>
@@ -4805,12 +4806,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>678</v>
       </c>
       <c r="B39" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D39">
         <v>1206</v>
@@ -4828,12 +4829,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>678</v>
       </c>
       <c r="B40" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D40">
         <v>1260</v>
@@ -4851,12 +4852,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>678</v>
       </c>
       <c r="B41" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D41">
         <v>1264</v>
@@ -4874,12 +4875,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>678</v>
       </c>
       <c r="B42" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D42">
         <v>1275</v>
@@ -4897,12 +4898,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>678</v>
       </c>
       <c r="B43" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D43">
         <v>1285</v>
@@ -4920,12 +4921,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>678</v>
       </c>
       <c r="B44" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D44">
         <v>1289</v>
@@ -4943,12 +4944,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>678</v>
       </c>
       <c r="B45" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D45">
         <v>1293</v>
@@ -4966,12 +4967,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>678</v>
       </c>
       <c r="B46" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D46">
         <v>1294</v>
@@ -4989,12 +4990,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>678</v>
       </c>
       <c r="B47" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D47">
         <v>1301</v>
@@ -5012,12 +5013,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>678</v>
       </c>
       <c r="B48" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D48">
         <v>1307</v>
@@ -5035,12 +5036,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>678</v>
       </c>
       <c r="B49" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D49">
         <v>1315</v>
@@ -5058,12 +5059,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>678</v>
       </c>
       <c r="B50" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D50">
         <v>1337</v>
@@ -5081,12 +5082,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>678</v>
       </c>
       <c r="B51" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D51">
         <v>1402</v>
@@ -5104,12 +5105,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>678</v>
       </c>
       <c r="B52" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D52">
         <v>1403</v>
@@ -5127,12 +5128,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>678</v>
       </c>
       <c r="B53" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D53">
         <v>1410</v>
@@ -5150,12 +5151,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>678</v>
       </c>
       <c r="B54" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D54">
         <v>1465</v>
@@ -5173,12 +5174,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>678</v>
       </c>
       <c r="B55" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D55">
         <v>1484</v>
@@ -5196,12 +5197,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>678</v>
       </c>
       <c r="B56" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D56">
         <v>1487</v>
@@ -5219,12 +5220,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>678</v>
       </c>
       <c r="B57" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D57">
         <v>1512</v>
@@ -5242,12 +5243,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>678</v>
       </c>
       <c r="B58" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D58">
         <v>1590</v>
@@ -5265,12 +5266,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>678</v>
       </c>
       <c r="B59" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D59">
         <v>1600</v>
@@ -5288,12 +5289,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>678</v>
       </c>
       <c r="B60" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D60">
         <v>1601</v>
@@ -5311,12 +5312,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>678</v>
       </c>
       <c r="B61" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D61">
         <v>1602</v>
@@ -5334,12 +5335,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>678</v>
       </c>
       <c r="B62" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D62">
         <v>1603</v>
@@ -5357,12 +5358,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>678</v>
       </c>
       <c r="B63" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D63">
         <v>1607</v>
@@ -5380,12 +5381,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>678</v>
       </c>
       <c r="B64" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D64">
         <v>1608</v>
@@ -5403,12 +5404,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>678</v>
       </c>
       <c r="B65" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D65">
         <v>1653</v>
@@ -5426,12 +5427,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>678</v>
       </c>
       <c r="B66" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D66">
         <v>1677</v>
@@ -5449,12 +5450,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>678</v>
       </c>
       <c r="B67" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D67">
         <v>1679</v>
@@ -5472,12 +5473,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>678</v>
       </c>
       <c r="B68" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D68">
         <v>1741</v>
@@ -5495,12 +5496,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>678</v>
       </c>
       <c r="B69" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D69">
         <v>1762</v>
@@ -5518,12 +5519,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>678</v>
       </c>
       <c r="B70" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D70">
         <v>1812</v>
@@ -5541,12 +5542,12 @@
         <v>521</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>678</v>
       </c>
       <c r="B71" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D71">
         <v>1814</v>
@@ -5564,12 +5565,12 @@
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>678</v>
       </c>
       <c r="B72" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D72">
         <v>1833</v>
@@ -5587,12 +5588,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>678</v>
       </c>
       <c r="B73" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D73">
         <v>1850</v>
@@ -5610,12 +5611,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>678</v>
       </c>
       <c r="B74" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D74">
         <v>1853</v>
@@ -5633,12 +5634,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>678</v>
       </c>
       <c r="B75" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D75">
         <v>1856</v>
@@ -5656,12 +5657,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>678</v>
       </c>
       <c r="B76" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D76">
         <v>1857</v>
@@ -5679,12 +5680,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>678</v>
       </c>
       <c r="B77" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D77">
         <v>1858</v>
@@ -5702,12 +5703,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>678</v>
       </c>
       <c r="B78" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D78">
         <v>1915</v>
@@ -5725,12 +5726,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>678</v>
       </c>
       <c r="B79" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D79">
         <v>1919</v>
@@ -5748,12 +5749,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>681</v>
       </c>
       <c r="B80" t="s">
-        <v>758</v>
+        <v>1152</v>
       </c>
       <c r="D80">
         <v>1921</v>
@@ -5771,12 +5772,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>678</v>
       </c>
       <c r="B81" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D81">
         <v>1922</v>
@@ -5794,12 +5795,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>678</v>
       </c>
       <c r="B82" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D82">
         <v>1923</v>
@@ -5817,12 +5818,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>678</v>
       </c>
       <c r="B83" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D83">
         <v>1925</v>
@@ -5840,12 +5841,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>678</v>
       </c>
       <c r="B84" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D84">
         <v>1937</v>
@@ -5863,12 +5864,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>678</v>
       </c>
       <c r="B85" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D85">
         <v>1938</v>
@@ -5886,12 +5887,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>678</v>
       </c>
       <c r="B86" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D86">
         <v>1942</v>
@@ -5909,12 +5910,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>678</v>
       </c>
       <c r="B87" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D87">
         <v>1955</v>
@@ -5932,12 +5933,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>678</v>
       </c>
       <c r="B88" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D88">
         <v>1964</v>
@@ -5955,12 +5956,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>678</v>
       </c>
       <c r="B89" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D89">
         <v>2010</v>
@@ -5978,12 +5979,12 @@
         <v>575</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>678</v>
       </c>
       <c r="B90" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D90">
         <v>2015</v>
@@ -6001,12 +6002,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>678</v>
       </c>
       <c r="B91" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D91">
         <v>2024</v>
@@ -6024,12 +6025,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>678</v>
       </c>
       <c r="B92" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D92">
         <v>2026</v>
@@ -6047,12 +6048,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>678</v>
       </c>
       <c r="B93" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D93">
         <v>2029</v>
@@ -6070,12 +6071,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>678</v>
       </c>
       <c r="B94" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D94">
         <v>2030</v>
@@ -6093,12 +6094,12 @@
         <v>585</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>678</v>
       </c>
       <c r="B95" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D95">
         <v>2031</v>
@@ -6116,12 +6117,12 @@
         <v>586</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>678</v>
       </c>
       <c r="B96" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D96">
         <v>2040</v>
@@ -6139,12 +6140,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>678</v>
       </c>
       <c r="B97" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D97">
         <v>2052</v>
@@ -6162,12 +6163,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>678</v>
       </c>
       <c r="B98" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D98">
         <v>2080</v>
@@ -6185,12 +6186,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>678</v>
       </c>
       <c r="B99" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D99">
         <v>2081</v>
@@ -6208,12 +6209,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>678</v>
       </c>
       <c r="B100" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D100">
         <v>2082</v>
@@ -6231,12 +6232,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>678</v>
       </c>
       <c r="B101" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D101">
         <v>2089</v>
@@ -6254,12 +6255,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>678</v>
       </c>
       <c r="B102" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D102">
         <v>2090</v>
@@ -6277,12 +6278,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>678</v>
       </c>
       <c r="B103" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D103">
         <v>2122</v>
@@ -6300,12 +6301,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>678</v>
       </c>
       <c r="B104" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D104">
         <v>2126</v>
@@ -6323,12 +6324,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>678</v>
       </c>
       <c r="B105" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D105">
         <v>2131</v>
@@ -6346,12 +6347,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>678</v>
       </c>
       <c r="B106" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D106">
         <v>2139</v>
@@ -6369,12 +6370,12 @@
         <v>615</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>678</v>
       </c>
       <c r="B107" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D107">
         <v>2140</v>
@@ -6393,6 +6394,9 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>677</v>
+      </c>
       <c r="D108">
         <v>2142</v>
       </c>
@@ -6409,12 +6413,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>678</v>
       </c>
       <c r="B109" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D109">
         <v>2149</v>
@@ -6432,12 +6436,12 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>678</v>
       </c>
       <c r="B110" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D110">
         <v>2191</v>
@@ -6455,12 +6459,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>678</v>
       </c>
       <c r="B111" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D111">
         <v>2207</v>
@@ -6478,12 +6482,12 @@
         <v>625</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>678</v>
       </c>
       <c r="B112" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D112">
         <v>2223</v>
@@ -6501,12 +6505,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>678</v>
       </c>
       <c r="B113" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D113">
         <v>2259</v>
@@ -6524,12 +6528,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>678</v>
       </c>
       <c r="B114" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D114">
         <v>2273</v>
@@ -6547,12 +6551,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>678</v>
       </c>
       <c r="B115" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D115">
         <v>2277</v>
@@ -6570,12 +6574,12 @@
         <v>643</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>681</v>
       </c>
       <c r="B116" t="s">
-        <v>793</v>
+        <v>1153</v>
       </c>
       <c r="D116">
         <v>2292</v>
@@ -6593,12 +6597,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>678</v>
       </c>
       <c r="B117" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D117">
         <v>2297</v>
@@ -6616,12 +6620,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>678</v>
       </c>
       <c r="B118" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D118">
         <v>2307</v>
@@ -6639,12 +6643,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>678</v>
       </c>
       <c r="B119" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D119">
         <v>2318</v>
@@ -6662,12 +6666,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>678</v>
       </c>
       <c r="B120" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D120">
         <v>2320</v>
@@ -6685,12 +6689,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>678</v>
       </c>
       <c r="B121" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D121">
         <v>2323</v>
@@ -6708,12 +6712,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>678</v>
       </c>
       <c r="B122" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D122">
         <v>2324</v>
@@ -6731,12 +6735,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>678</v>
       </c>
       <c r="B123" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D123">
         <v>2324</v>
@@ -6754,12 +6758,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>678</v>
       </c>
       <c r="B124" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D124">
         <v>2324</v>
@@ -6777,12 +6781,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>678</v>
       </c>
       <c r="B125" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D125">
         <v>2325</v>
@@ -6800,12 +6804,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>678</v>
       </c>
       <c r="B126" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D126">
         <v>2326</v>
@@ -6823,12 +6827,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>678</v>
       </c>
       <c r="B127" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D127">
         <v>2337</v>
@@ -6846,12 +6850,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>678</v>
       </c>
       <c r="B128" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D128">
         <v>2339</v>
@@ -6869,12 +6873,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>678</v>
       </c>
       <c r="B129" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D129">
         <v>2350</v>
@@ -6892,12 +6896,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>678</v>
       </c>
       <c r="B130" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D130">
         <v>2372</v>
@@ -6915,12 +6919,12 @@
         <v>668</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>678</v>
       </c>
       <c r="B131" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D131">
         <v>2377</v>
@@ -6938,12 +6942,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>678</v>
       </c>
       <c r="B132" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D132">
         <v>2395</v>
@@ -6961,12 +6965,12 @@
         <v>676</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>681</v>
       </c>
       <c r="B133" t="s">
-        <v>810</v>
+        <v>1154</v>
       </c>
       <c r="D133">
         <v>2397</v>
@@ -6984,12 +6988,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>678</v>
       </c>
       <c r="B134" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D134">
         <v>2402</v>
@@ -7007,12 +7011,12 @@
         <v>677</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>678</v>
       </c>
       <c r="B135" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D135">
         <v>2408</v>
@@ -7030,12 +7034,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>678</v>
       </c>
       <c r="B136" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D136">
         <v>2410</v>
@@ -7053,12 +7057,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>678</v>
       </c>
       <c r="B137" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D137">
         <v>2412</v>
@@ -7076,12 +7080,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>678</v>
       </c>
       <c r="B138" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D138">
         <v>2419</v>
@@ -7099,12 +7103,12 @@
         <v>684</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>678</v>
       </c>
       <c r="B139" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D139">
         <v>2421</v>
@@ -7122,12 +7126,12 @@
         <v>685</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>678</v>
       </c>
       <c r="B140" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D140">
         <v>2433</v>
@@ -7145,12 +7149,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>681</v>
       </c>
       <c r="B141" t="s">
-        <v>818</v>
+        <v>1155</v>
       </c>
       <c r="D141">
         <v>2440</v>
@@ -7168,12 +7172,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>678</v>
       </c>
       <c r="B142" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D142">
         <v>2455</v>
@@ -7191,12 +7195,12 @@
         <v>694</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>678</v>
       </c>
       <c r="B143" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="D143">
         <v>2459</v>
@@ -7214,12 +7218,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>678</v>
       </c>
       <c r="B144" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D144">
         <v>2460</v>
@@ -7237,12 +7241,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>678</v>
       </c>
       <c r="B145" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D145">
         <v>2465</v>
@@ -7260,12 +7264,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>678</v>
       </c>
       <c r="B146" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D146">
         <v>2470</v>
@@ -7283,12 +7287,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>678</v>
       </c>
       <c r="B147" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="D147">
         <v>2471</v>
@@ -7306,12 +7310,12 @@
         <v>701</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>681</v>
       </c>
       <c r="B148" t="s">
-        <v>825</v>
+        <v>1156</v>
       </c>
       <c r="D148">
         <v>2472</v>
@@ -7329,12 +7333,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>678</v>
       </c>
       <c r="B149" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D149">
         <v>2482</v>
@@ -7352,12 +7356,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>678</v>
       </c>
       <c r="B150" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D150">
         <v>2483</v>
@@ -7375,12 +7379,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>678</v>
       </c>
       <c r="B151" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="D151">
         <v>2499</v>
@@ -7398,12 +7402,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>678</v>
       </c>
       <c r="B152" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D152">
         <v>2500</v>
@@ -7421,12 +7425,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>678</v>
       </c>
       <c r="B153" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D153">
         <v>2503</v>
@@ -7444,12 +7448,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>678</v>
       </c>
       <c r="B154" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D154">
         <v>2504</v>
@@ -7467,12 +7471,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>678</v>
       </c>
       <c r="B155" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D155">
         <v>2507</v>
@@ -7490,12 +7494,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>678</v>
       </c>
       <c r="B156" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="D156">
         <v>2512</v>
@@ -7513,12 +7517,12 @@
         <v>715</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>678</v>
       </c>
       <c r="B157" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="D157">
         <v>2529</v>
@@ -7536,12 +7540,12 @@
         <v>719</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>678</v>
       </c>
       <c r="B158" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D158">
         <v>2531</v>
@@ -7559,12 +7563,12 @@
         <v>719</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>678</v>
       </c>
       <c r="B159" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D159">
         <v>2534</v>
@@ -7582,12 +7586,12 @@
         <v>720</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>678</v>
       </c>
       <c r="B160" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D160">
         <v>2535</v>
@@ -7605,12 +7609,12 @@
         <v>720</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>678</v>
       </c>
       <c r="B161" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="D161">
         <v>2539</v>
@@ -7628,12 +7632,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>678</v>
       </c>
       <c r="B162" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D162">
         <v>2547</v>
@@ -7651,12 +7655,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>678</v>
       </c>
       <c r="B163" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D163">
         <v>2558</v>
@@ -7674,12 +7678,12 @@
         <v>727</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>678</v>
       </c>
       <c r="B164" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="D164">
         <v>2577</v>
@@ -7697,12 +7701,12 @@
         <v>729</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>678</v>
       </c>
       <c r="B165" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D165">
         <v>2579</v>
@@ -7720,12 +7724,12 @@
         <v>729</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>678</v>
       </c>
       <c r="B166" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D166">
         <v>2587</v>
@@ -7743,12 +7747,12 @@
         <v>731</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>678</v>
       </c>
       <c r="B167" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D167">
         <v>2603</v>
@@ -7766,12 +7770,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>678</v>
       </c>
       <c r="B168" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="D168">
         <v>2604</v>
@@ -7790,6 +7794,9 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>677</v>
+      </c>
       <c r="D169">
         <v>2640</v>
       </c>
@@ -7806,12 +7813,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>678</v>
       </c>
       <c r="B170" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D170">
         <v>2642</v>
@@ -7829,12 +7836,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>678</v>
       </c>
       <c r="B171" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="D171">
         <v>2643</v>
@@ -7852,12 +7859,12 @@
         <v>744</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>678</v>
       </c>
       <c r="B172" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D172">
         <v>2644</v>
@@ -7875,12 +7882,12 @@
         <v>745</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>678</v>
       </c>
       <c r="B173" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="D173">
         <v>2650</v>
@@ -7898,12 +7905,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>678</v>
       </c>
       <c r="B174" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="D174">
         <v>2651</v>
@@ -7921,12 +7928,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>678</v>
       </c>
       <c r="B175" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D175">
         <v>2694</v>
@@ -7944,12 +7951,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>678</v>
       </c>
       <c r="B176" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D176">
         <v>2736</v>
@@ -7967,12 +7974,12 @@
         <v>760</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>678</v>
       </c>
       <c r="B177" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="D177">
         <v>2739</v>
@@ -7990,12 +7997,12 @@
         <v>761</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>678</v>
       </c>
       <c r="B178" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="D178">
         <v>2751</v>
@@ -8013,12 +8020,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>678</v>
       </c>
       <c r="B179" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D179">
         <v>2755</v>
@@ -8036,12 +8043,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>678</v>
       </c>
       <c r="B180" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="D180">
         <v>2766</v>
@@ -8059,12 +8066,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>678</v>
       </c>
       <c r="B181" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D181">
         <v>2766</v>
@@ -8082,12 +8089,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>678</v>
       </c>
       <c r="B182" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D182">
         <v>2766</v>
@@ -8105,12 +8112,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>678</v>
       </c>
       <c r="B183" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D183">
         <v>2772</v>
@@ -8128,12 +8135,12 @@
         <v>767</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>678</v>
       </c>
       <c r="B184" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D184">
         <v>2780</v>
@@ -8151,12 +8158,12 @@
         <v>768</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>678</v>
       </c>
       <c r="B185" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="D185">
         <v>2781</v>
@@ -8174,12 +8181,12 @@
         <v>768</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>678</v>
       </c>
       <c r="B186" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="D186">
         <v>2782</v>
@@ -8197,12 +8204,12 @@
         <v>768</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>678</v>
       </c>
       <c r="B187" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="D187">
         <v>2807</v>
@@ -8220,12 +8227,12 @@
         <v>776</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>678</v>
       </c>
       <c r="B188" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="D188">
         <v>2816</v>
@@ -8243,12 +8250,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>678</v>
       </c>
       <c r="B189" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="D189">
         <v>2821</v>
@@ -8266,12 +8273,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>678</v>
       </c>
       <c r="B190" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="D190">
         <v>2842</v>
@@ -8289,12 +8296,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>678</v>
       </c>
       <c r="B191" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="D191">
         <v>2869</v>
@@ -8312,12 +8319,12 @@
         <v>791</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>678</v>
       </c>
       <c r="B192" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="D192">
         <v>2875</v>
@@ -8335,12 +8342,12 @@
         <v>792</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>678</v>
       </c>
       <c r="B193" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="D193">
         <v>2876</v>
@@ -8358,12 +8365,12 @@
         <v>793</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>678</v>
       </c>
       <c r="B194" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="D194">
         <v>2885</v>
@@ -8381,12 +8388,12 @@
         <v>795</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>678</v>
       </c>
       <c r="B195" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="D195">
         <v>2900</v>
@@ -8404,12 +8411,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>678</v>
       </c>
       <c r="B196" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="D196">
         <v>2903</v>
@@ -8427,12 +8434,12 @@
         <v>776</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>678</v>
       </c>
       <c r="B197" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="D197">
         <v>2918</v>
@@ -8450,12 +8457,12 @@
         <v>805</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>678</v>
       </c>
       <c r="B198" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D198">
         <v>2927</v>
@@ -8473,12 +8480,12 @@
         <v>809</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>678</v>
       </c>
       <c r="B199" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="D199">
         <v>2937</v>
@@ -8496,12 +8503,12 @@
         <v>812</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>681</v>
       </c>
       <c r="B200" t="s">
-        <v>876</v>
+        <v>1157</v>
       </c>
       <c r="D200">
         <v>2940</v>
@@ -8519,12 +8526,12 @@
         <v>815</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>678</v>
       </c>
       <c r="B201" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="D201">
         <v>2941</v>
@@ -8542,12 +8549,12 @@
         <v>815</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>678</v>
       </c>
       <c r="B202" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D202">
         <v>2942</v>
@@ -8565,12 +8572,12 @@
         <v>816</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>678</v>
       </c>
       <c r="B203" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="D203">
         <v>2948</v>
@@ -8588,12 +8595,12 @@
         <v>715</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>678</v>
       </c>
       <c r="B204" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D204">
         <v>2961</v>
@@ -8611,12 +8618,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>678</v>
       </c>
       <c r="B205" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="D205">
         <v>2971</v>
@@ -8634,12 +8641,12 @@
         <v>824</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>678</v>
       </c>
       <c r="B206" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="D206">
         <v>3001</v>
@@ -8657,12 +8664,12 @@
         <v>495</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>678</v>
       </c>
       <c r="B207" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="D207">
         <v>3010</v>
@@ -8680,12 +8687,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>678</v>
       </c>
       <c r="B208" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="D208">
         <v>3011</v>
@@ -8703,12 +8710,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>678</v>
       </c>
       <c r="B209" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="D209">
         <v>3012</v>
@@ -8726,12 +8733,12 @@
         <v>834</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>678</v>
       </c>
       <c r="B210" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="D210">
         <v>3018</v>
@@ -8749,12 +8756,12 @@
         <v>838</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>681</v>
       </c>
       <c r="B211" t="s">
-        <v>887</v>
+        <v>1158</v>
       </c>
       <c r="D211">
         <v>3022</v>
@@ -8772,12 +8779,12 @@
         <v>840</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>678</v>
       </c>
       <c r="B212" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="D212">
         <v>3030</v>
@@ -8795,12 +8802,12 @@
         <v>843</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>678</v>
       </c>
       <c r="B213" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="D213">
         <v>3033</v>
@@ -8818,12 +8825,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>678</v>
       </c>
       <c r="B214" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="D214">
         <v>3044</v>
@@ -8841,12 +8848,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>678</v>
       </c>
       <c r="B215" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="D215">
         <v>3045</v>
@@ -8864,12 +8871,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>678</v>
       </c>
       <c r="B216" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="D216">
         <v>3047</v>
@@ -8887,12 +8894,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>678</v>
       </c>
       <c r="B217" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="D217">
         <v>3048</v>
@@ -8910,12 +8917,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>678</v>
       </c>
       <c r="B218" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="D218">
         <v>3049</v>
@@ -8933,12 +8940,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>678</v>
       </c>
       <c r="B219" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="D219">
         <v>3050</v>
@@ -8956,12 +8963,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>678</v>
       </c>
       <c r="B220" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="D220">
         <v>3051</v>
@@ -8979,12 +8986,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>678</v>
       </c>
       <c r="B221" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="D221">
         <v>3053</v>
@@ -9002,12 +9009,12 @@
         <v>848</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>678</v>
       </c>
       <c r="B222" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="D222">
         <v>3055</v>
@@ -9025,12 +9032,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>678</v>
       </c>
       <c r="B223" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="D223">
         <v>3056</v>
@@ -9048,12 +9055,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>678</v>
       </c>
       <c r="B224" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="D224">
         <v>3064</v>
@@ -9071,12 +9078,12 @@
         <v>852</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>678</v>
       </c>
       <c r="B225" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D225">
         <v>3065</v>
@@ -9094,12 +9101,12 @@
         <v>853</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>678</v>
       </c>
       <c r="B226" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="D226">
         <v>3083</v>
@@ -9117,12 +9124,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>678</v>
       </c>
       <c r="B227" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="D227">
         <v>3085</v>
@@ -9140,12 +9147,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>678</v>
       </c>
       <c r="B228" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="D228">
         <v>3086</v>
@@ -9163,12 +9170,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>678</v>
       </c>
       <c r="B229" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D229">
         <v>3088</v>
@@ -9186,12 +9193,12 @@
         <v>859</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>678</v>
       </c>
       <c r="B230" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="D230">
         <v>3098</v>
@@ -9209,12 +9216,12 @@
         <v>861</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>678</v>
       </c>
       <c r="B231" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="D231">
         <v>3113</v>
@@ -9232,12 +9239,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>678</v>
       </c>
       <c r="B232" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D232">
         <v>3115</v>
@@ -9255,12 +9262,12 @@
         <v>796</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>678</v>
       </c>
       <c r="B233" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="D233">
         <v>3116</v>
@@ -9278,12 +9285,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>678</v>
       </c>
       <c r="B234" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="D234">
         <v>3117</v>
@@ -9301,12 +9308,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>678</v>
       </c>
       <c r="B235" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="D235">
         <v>3118</v>
@@ -9324,12 +9331,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>678</v>
       </c>
       <c r="B236" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D236">
         <v>3120</v>
@@ -9347,12 +9354,12 @@
         <v>866</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>678</v>
       </c>
       <c r="B237" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="D237">
         <v>3122</v>
@@ -9370,12 +9377,12 @@
         <v>853</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>678</v>
       </c>
       <c r="B238" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="D238">
         <v>3125</v>
@@ -9393,12 +9400,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>678</v>
       </c>
       <c r="B239" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="D239">
         <v>3129</v>
@@ -9416,12 +9423,12 @@
         <v>868</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>678</v>
       </c>
       <c r="B240" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="D240">
         <v>3138</v>
@@ -9439,12 +9446,12 @@
         <v>826</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>678</v>
       </c>
       <c r="B241" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="D241">
         <v>3148</v>
@@ -9462,12 +9469,12 @@
         <v>871</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>678</v>
       </c>
       <c r="B242" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="D242">
         <v>3150</v>
@@ -9485,12 +9492,12 @@
         <v>871</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>678</v>
       </c>
       <c r="B243" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="D243">
         <v>3156</v>
@@ -9508,12 +9515,12 @@
         <v>873</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>678</v>
       </c>
       <c r="B244" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="D244">
         <v>3157</v>
@@ -9531,12 +9538,12 @@
         <v>873</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>678</v>
       </c>
       <c r="B245" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="D245">
         <v>3158</v>
@@ -9554,12 +9561,12 @@
         <v>873</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>678</v>
       </c>
       <c r="B246" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="D246">
         <v>3159</v>
@@ -9577,12 +9584,12 @@
         <v>873</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>678</v>
       </c>
       <c r="B247" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="D247">
         <v>3160</v>
@@ -9600,12 +9607,12 @@
         <v>873</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>678</v>
       </c>
       <c r="B248" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="D248">
         <v>3162</v>
@@ -9623,12 +9630,12 @@
         <v>874</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>678</v>
       </c>
       <c r="B249" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="D249">
         <v>3163</v>
@@ -9646,12 +9653,12 @@
         <v>874</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>678</v>
       </c>
       <c r="B250" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="D250">
         <v>3164</v>
@@ -9669,12 +9676,12 @@
         <v>874</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>678</v>
       </c>
       <c r="B251" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="D251">
         <v>3165</v>
@@ -9692,12 +9699,12 @@
         <v>874</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>678</v>
       </c>
       <c r="B252" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="D252">
         <v>3172</v>
@@ -9715,12 +9722,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>678</v>
       </c>
       <c r="B253" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="D253">
         <v>3189</v>
@@ -9738,12 +9745,12 @@
         <v>888</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>678</v>
       </c>
       <c r="B254" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="D254">
         <v>3191</v>
@@ -9761,12 +9768,12 @@
         <v>885</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>678</v>
       </c>
       <c r="B255" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="D255">
         <v>3195</v>
@@ -9784,12 +9791,12 @@
         <v>886</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>678</v>
       </c>
       <c r="B256" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="D256">
         <v>3197</v>
@@ -9807,12 +9814,12 @@
         <v>887</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>678</v>
       </c>
       <c r="B257" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="D257">
         <v>3206</v>
@@ -9830,12 +9837,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>678</v>
       </c>
       <c r="B258" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="D258">
         <v>3218</v>
@@ -9853,12 +9860,12 @@
         <v>897</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>678</v>
       </c>
       <c r="B259" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="D259">
         <v>3229</v>
@@ -9876,12 +9883,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>678</v>
       </c>
       <c r="B260" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="D260">
         <v>3233</v>
@@ -9899,12 +9906,12 @@
         <v>901</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>678</v>
       </c>
       <c r="B261" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="D261">
         <v>3237</v>
@@ -9922,12 +9929,12 @@
         <v>902</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>678</v>
       </c>
       <c r="B262" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="D262">
         <v>3242</v>
@@ -9945,12 +9952,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>678</v>
       </c>
       <c r="B263" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="D263">
         <v>3288</v>
@@ -9968,12 +9975,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>678</v>
       </c>
       <c r="B264" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="D264">
         <v>3296</v>
@@ -9991,12 +9998,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>678</v>
       </c>
       <c r="B265" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="D265">
         <v>3308</v>
@@ -10014,12 +10021,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>678</v>
       </c>
       <c r="B266" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="D266">
         <v>3312</v>
@@ -10037,12 +10044,12 @@
         <v>884</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>678</v>
       </c>
       <c r="B267" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="D267">
         <v>3326</v>
@@ -10060,12 +10067,12 @@
         <v>934</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>678</v>
       </c>
       <c r="B268" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="D268">
         <v>3329</v>
@@ -10083,12 +10090,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>678</v>
       </c>
       <c r="B269" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="D269">
         <v>3330</v>
@@ -10106,12 +10113,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>678</v>
       </c>
       <c r="B270" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="D270">
         <v>3331</v>
@@ -10129,12 +10136,12 @@
         <v>937</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>678</v>
       </c>
       <c r="B271" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="D271">
         <v>3337</v>
@@ -10152,12 +10159,12 @@
         <v>735</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>678</v>
       </c>
       <c r="B272" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="D272">
         <v>3342</v>
@@ -10175,12 +10182,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>678</v>
       </c>
       <c r="B273" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="D273">
         <v>3358</v>
@@ -10198,12 +10205,12 @@
         <v>944</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>678</v>
       </c>
       <c r="B274" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="D274">
         <v>3360</v>
@@ -10221,12 +10228,12 @@
         <v>945</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>678</v>
       </c>
       <c r="B275" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="D275">
         <v>3416</v>
@@ -10244,12 +10251,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>678</v>
       </c>
       <c r="B276" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="D276">
         <v>3421</v>
@@ -10267,12 +10274,12 @@
         <v>977</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>678</v>
       </c>
       <c r="B277" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="D277">
         <v>3423</v>
@@ -10290,12 +10297,12 @@
         <v>768</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>678</v>
       </c>
       <c r="B278" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="D278">
         <v>3437</v>
@@ -10313,12 +10320,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>678</v>
       </c>
       <c r="B279" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="D279">
         <v>3442</v>
@@ -10336,12 +10343,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>678</v>
       </c>
       <c r="B280" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="D280">
         <v>3453</v>
@@ -10359,12 +10366,12 @@
         <v>824</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>678</v>
       </c>
       <c r="B281" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="D281">
         <v>3483</v>
@@ -10382,12 +10389,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>678</v>
       </c>
       <c r="B282" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="D282">
         <v>3493</v>
@@ -10405,12 +10412,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>678</v>
       </c>
       <c r="B283" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="D283">
         <v>3510</v>
@@ -10428,12 +10435,12 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>681</v>
       </c>
       <c r="B284" t="s">
-        <v>960</v>
+        <v>1159</v>
       </c>
       <c r="D284">
         <v>3516</v>
@@ -10451,12 +10458,12 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>678</v>
       </c>
       <c r="B285" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D285">
         <v>3529</v>
@@ -10474,12 +10481,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>678</v>
       </c>
       <c r="B286" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="D286">
         <v>3531</v>
@@ -10497,12 +10504,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>678</v>
       </c>
       <c r="B287" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="D287">
         <v>3535</v>
@@ -10520,12 +10527,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>678</v>
       </c>
       <c r="B288" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="D288">
         <v>3537</v>
@@ -10543,12 +10550,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>678</v>
       </c>
       <c r="B289" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="D289">
         <v>3545</v>
@@ -10566,12 +10573,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>678</v>
       </c>
       <c r="B290" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="D290">
         <v>3547</v>
@@ -10589,12 +10596,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>678</v>
       </c>
       <c r="B291" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="D291">
         <v>3549</v>
@@ -10612,12 +10619,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>678</v>
       </c>
       <c r="B292" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="D292">
         <v>3552</v>
@@ -10635,12 +10642,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>678</v>
       </c>
       <c r="B293" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="D293">
         <v>3553</v>
@@ -10658,12 +10665,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>678</v>
       </c>
       <c r="B294" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="D294">
         <v>3556</v>
@@ -10681,12 +10688,12 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>678</v>
       </c>
       <c r="B295" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="D295">
         <v>3557</v>
@@ -10704,12 +10711,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>678</v>
       </c>
       <c r="B296" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="D296">
         <v>3561</v>
@@ -10727,12 +10734,12 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>678</v>
       </c>
       <c r="B297" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="D297">
         <v>3573</v>
@@ -10750,12 +10757,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>678</v>
       </c>
       <c r="B298" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="D298">
         <v>3577</v>
@@ -10773,12 +10780,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>678</v>
       </c>
       <c r="B299" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="D299">
         <v>3578</v>
@@ -10796,12 +10803,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>678</v>
       </c>
       <c r="B300" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="D300">
         <v>3579</v>
@@ -10819,12 +10826,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>678</v>
       </c>
       <c r="B301" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="D301">
         <v>3580</v>
@@ -10842,12 +10849,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>678</v>
       </c>
       <c r="B302" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="D302">
         <v>3581</v>
@@ -10865,12 +10872,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>678</v>
       </c>
       <c r="B303" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="D303">
         <v>3609</v>
@@ -10888,12 +10895,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>678</v>
       </c>
       <c r="B304" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="D304">
         <v>3610</v>
@@ -10911,12 +10918,12 @@
         <v>993</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>678</v>
       </c>
       <c r="B305" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="D305">
         <v>3614</v>
@@ -10934,12 +10941,12 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>678</v>
       </c>
       <c r="B306" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="D306">
         <v>3625</v>
@@ -10957,12 +10964,12 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>678</v>
       </c>
       <c r="B307" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="D307">
         <v>3634</v>
@@ -10980,12 +10987,12 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>678</v>
       </c>
       <c r="B308" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="D308">
         <v>3653</v>
@@ -11003,12 +11010,12 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>678</v>
       </c>
       <c r="B309" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="D309">
         <v>3671</v>
@@ -11026,12 +11033,12 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>678</v>
       </c>
       <c r="B310" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="D310">
         <v>3680</v>
@@ -11049,12 +11056,12 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>678</v>
       </c>
       <c r="B311" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="D311">
         <v>3691</v>
@@ -11072,12 +11079,12 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>678</v>
       </c>
       <c r="B312" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="D312">
         <v>3700</v>
@@ -11095,12 +11102,12 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>678</v>
       </c>
       <c r="B313" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="D313">
         <v>3706</v>
@@ -11118,12 +11125,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>678</v>
       </c>
       <c r="B314" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="D314">
         <v>3720</v>
@@ -11141,12 +11148,12 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>678</v>
       </c>
       <c r="B315" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="D315">
         <v>3723</v>
@@ -11164,12 +11171,12 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>678</v>
       </c>
       <c r="B316" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="D316">
         <v>3736</v>
@@ -11187,12 +11194,12 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>678</v>
       </c>
       <c r="B317" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="D317">
         <v>3772</v>
@@ -11210,12 +11217,12 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>678</v>
       </c>
       <c r="B318" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="D318">
         <v>3775</v>
@@ -11233,12 +11240,12 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>678</v>
       </c>
       <c r="B319" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="D319">
         <v>3800</v>
@@ -11256,12 +11263,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>678</v>
       </c>
       <c r="B320" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="D320">
         <v>3803</v>
@@ -11279,12 +11286,12 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>678</v>
       </c>
       <c r="B321" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="D321">
         <v>3809</v>
@@ -11302,12 +11309,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>678</v>
       </c>
       <c r="B322" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="D322">
         <v>3816</v>
@@ -11325,12 +11332,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>678</v>
       </c>
       <c r="B323" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="D323">
         <v>3817</v>
@@ -11348,12 +11355,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>678</v>
       </c>
       <c r="B324" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="D324">
         <v>3855</v>
@@ -11371,12 +11378,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>678</v>
       </c>
       <c r="B325" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="D325">
         <v>3859</v>
@@ -11394,15 +11401,12 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>678</v>
       </c>
       <c r="B326" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C326" t="s">
-        <v>677</v>
+        <v>990</v>
       </c>
       <c r="D326">
         <v>3874</v>
@@ -11420,15 +11424,12 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>678</v>
       </c>
       <c r="B327" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C327" t="s">
-        <v>677</v>
+        <v>991</v>
       </c>
       <c r="D327">
         <v>3890</v>
@@ -11446,15 +11447,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>678</v>
       </c>
       <c r="B328" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C328" t="s">
-        <v>677</v>
+        <v>992</v>
       </c>
       <c r="D328">
         <v>3893</v>
@@ -11472,15 +11470,12 @@
         <v>715</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>678</v>
       </c>
       <c r="B329" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C329" t="s">
-        <v>677</v>
+        <v>993</v>
       </c>
       <c r="D329">
         <v>3895</v>
@@ -11498,15 +11493,12 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>678</v>
       </c>
       <c r="B330" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C330" t="s">
-        <v>677</v>
+        <v>994</v>
       </c>
       <c r="D330">
         <v>3898</v>
@@ -11524,15 +11516,12 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>678</v>
       </c>
       <c r="B331" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C331" t="s">
-        <v>677</v>
+        <v>995</v>
       </c>
       <c r="D331">
         <v>3901</v>
@@ -11550,15 +11539,12 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>678</v>
       </c>
       <c r="B332" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C332" t="s">
-        <v>677</v>
+        <v>996</v>
       </c>
       <c r="D332">
         <v>3904</v>
@@ -11576,15 +11562,12 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>678</v>
       </c>
       <c r="B333" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C333" t="s">
-        <v>677</v>
+        <v>997</v>
       </c>
       <c r="D333">
         <v>3913</v>
@@ -11602,15 +11585,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>678</v>
       </c>
       <c r="B334" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C334" t="s">
-        <v>677</v>
+        <v>998</v>
       </c>
       <c r="D334">
         <v>3922</v>
@@ -11628,15 +11608,12 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>678</v>
       </c>
       <c r="B335" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C335" t="s">
-        <v>677</v>
+        <v>999</v>
       </c>
       <c r="D335">
         <v>3924</v>
@@ -11654,15 +11631,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>678</v>
       </c>
       <c r="B336" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C336" t="s">
-        <v>677</v>
+        <v>1000</v>
       </c>
       <c r="D336">
         <v>3935</v>
@@ -11680,15 +11654,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>678</v>
       </c>
       <c r="B337" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C337" t="s">
-        <v>677</v>
+        <v>1001</v>
       </c>
       <c r="D337">
         <v>3936</v>
@@ -11706,15 +11677,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>678</v>
       </c>
       <c r="B338" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C338" t="s">
-        <v>677</v>
+        <v>1002</v>
       </c>
       <c r="D338">
         <v>3939</v>
@@ -11732,15 +11700,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>678</v>
       </c>
       <c r="B339" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C339" t="s">
-        <v>677</v>
+        <v>1003</v>
       </c>
       <c r="D339">
         <v>3940</v>
@@ -11758,15 +11723,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>678</v>
       </c>
       <c r="B340" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C340" t="s">
-        <v>677</v>
+        <v>1004</v>
       </c>
       <c r="D340">
         <v>3941</v>
@@ -11784,15 +11746,12 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>678</v>
       </c>
       <c r="B341" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C341" t="s">
-        <v>677</v>
+        <v>1005</v>
       </c>
       <c r="D341">
         <v>3949</v>
@@ -11810,15 +11769,12 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>678</v>
       </c>
       <c r="B342" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C342" t="s">
-        <v>677</v>
+        <v>1006</v>
       </c>
       <c r="D342">
         <v>3951</v>
@@ -11836,15 +11792,12 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>678</v>
       </c>
       <c r="B343" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C343" t="s">
-        <v>677</v>
+        <v>1007</v>
       </c>
       <c r="D343">
         <v>3953</v>
@@ -11862,15 +11815,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>678</v>
       </c>
       <c r="B344" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C344" t="s">
-        <v>677</v>
+        <v>1008</v>
       </c>
       <c r="D344">
         <v>3955</v>
@@ -11888,15 +11838,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>678</v>
       </c>
       <c r="B345" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C345" t="s">
-        <v>677</v>
+        <v>1009</v>
       </c>
       <c r="D345">
         <v>3960</v>
@@ -11914,15 +11861,12 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>678</v>
       </c>
       <c r="B346" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C346" t="s">
-        <v>677</v>
+        <v>1010</v>
       </c>
       <c r="D346">
         <v>3962</v>
@@ -11940,15 +11884,12 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>678</v>
       </c>
       <c r="B347" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C347" t="s">
-        <v>677</v>
+        <v>1011</v>
       </c>
       <c r="D347">
         <v>3963</v>
@@ -11966,15 +11907,12 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>678</v>
       </c>
       <c r="B348" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C348" t="s">
-        <v>677</v>
+        <v>1012</v>
       </c>
       <c r="D348">
         <v>3964</v>
@@ -11992,15 +11930,12 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>678</v>
       </c>
       <c r="B349" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C349" t="s">
-        <v>677</v>
+        <v>1013</v>
       </c>
       <c r="D349">
         <v>3965</v>
@@ -12018,15 +11953,12 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>678</v>
       </c>
       <c r="B350" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C350" t="s">
-        <v>677</v>
+        <v>1014</v>
       </c>
       <c r="D350">
         <v>3966</v>
@@ -12044,15 +11976,12 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>678</v>
       </c>
       <c r="B351" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C351" t="s">
-        <v>677</v>
+        <v>1015</v>
       </c>
       <c r="D351">
         <v>3999</v>
@@ -12070,15 +11999,12 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>678</v>
       </c>
       <c r="B352" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C352" t="s">
-        <v>677</v>
+        <v>1016</v>
       </c>
       <c r="D352">
         <v>4000</v>
@@ -12096,15 +12022,12 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>678</v>
       </c>
       <c r="B353" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C353" t="s">
-        <v>677</v>
+        <v>1017</v>
       </c>
       <c r="D353">
         <v>4002</v>
@@ -12122,15 +12045,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>678</v>
       </c>
       <c r="B354" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C354" t="s">
-        <v>677</v>
+        <v>1018</v>
       </c>
       <c r="D354">
         <v>4013</v>
@@ -12148,15 +12068,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>678</v>
       </c>
       <c r="B355" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C355" t="s">
-        <v>677</v>
+        <v>1019</v>
       </c>
       <c r="D355">
         <v>4014</v>
@@ -12174,15 +12091,12 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>678</v>
       </c>
       <c r="B356" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C356" t="s">
-        <v>677</v>
+        <v>1020</v>
       </c>
       <c r="D356">
         <v>4019</v>
@@ -12200,15 +12114,12 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>678</v>
       </c>
       <c r="B357" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C357" t="s">
-        <v>677</v>
+        <v>1021</v>
       </c>
       <c r="D357">
         <v>4021</v>
@@ -12226,15 +12137,12 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>681</v>
       </c>
       <c r="B358" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C358" t="s">
-        <v>677</v>
+        <v>1160</v>
       </c>
       <c r="D358">
         <v>4050</v>
@@ -12252,15 +12160,12 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>678</v>
       </c>
       <c r="B359" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C359" t="s">
-        <v>677</v>
+        <v>1022</v>
       </c>
       <c r="D359">
         <v>4067</v>
@@ -12278,15 +12183,12 @@
         <v>664</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>681</v>
       </c>
       <c r="B360" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C360" t="s">
-        <v>677</v>
+        <v>1161</v>
       </c>
       <c r="D360">
         <v>4069</v>
@@ -12304,15 +12206,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>681</v>
       </c>
       <c r="B361" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C361" t="s">
-        <v>677</v>
+        <v>1162</v>
       </c>
       <c r="D361">
         <v>4070</v>
@@ -12330,15 +12229,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>678</v>
       </c>
       <c r="B362" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C362" t="s">
-        <v>677</v>
+        <v>1023</v>
       </c>
       <c r="D362">
         <v>4071</v>
@@ -12356,15 +12252,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>681</v>
       </c>
       <c r="B363" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C363" t="s">
-        <v>677</v>
+        <v>1163</v>
       </c>
       <c r="D363">
         <v>4085</v>
@@ -12382,15 +12275,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>678</v>
       </c>
       <c r="B364" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C364" t="s">
-        <v>677</v>
+        <v>1024</v>
       </c>
       <c r="D364">
         <v>4086</v>
@@ -12408,15 +12298,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>678</v>
       </c>
       <c r="B365" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C365" t="s">
-        <v>677</v>
+        <v>1025</v>
       </c>
       <c r="D365">
         <v>4091</v>
@@ -12434,15 +12321,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>678</v>
       </c>
       <c r="B366" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C366" t="s">
-        <v>677</v>
+        <v>1026</v>
       </c>
       <c r="D366">
         <v>4095</v>
@@ -12460,15 +12344,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>678</v>
       </c>
       <c r="B367" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C367" t="s">
-        <v>677</v>
+        <v>1027</v>
       </c>
       <c r="D367">
         <v>4099</v>
@@ -12486,15 +12367,12 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>678</v>
       </c>
       <c r="B368" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C368" t="s">
-        <v>677</v>
+        <v>1028</v>
       </c>
       <c r="D368">
         <v>4104</v>
@@ -12512,15 +12390,12 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>678</v>
       </c>
       <c r="B369" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C369" t="s">
-        <v>677</v>
+        <v>1029</v>
       </c>
       <c r="D369">
         <v>4109</v>
@@ -12538,15 +12413,12 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>678</v>
       </c>
       <c r="B370" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C370" t="s">
-        <v>677</v>
+        <v>1030</v>
       </c>
       <c r="D370">
         <v>4110</v>
@@ -12564,15 +12436,12 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>678</v>
       </c>
       <c r="B371" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C371" t="s">
-        <v>677</v>
+        <v>1031</v>
       </c>
       <c r="D371">
         <v>4111</v>
@@ -12590,15 +12459,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>678</v>
       </c>
       <c r="B372" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C372" t="s">
-        <v>677</v>
+        <v>1032</v>
       </c>
       <c r="D372">
         <v>4113</v>
@@ -12616,15 +12482,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>678</v>
       </c>
       <c r="B373" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C373" t="s">
-        <v>677</v>
+        <v>1033</v>
       </c>
       <c r="D373">
         <v>4114</v>
@@ -12642,15 +12505,12 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>678</v>
       </c>
       <c r="B374" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C374" t="s">
-        <v>677</v>
+        <v>1034</v>
       </c>
       <c r="D374">
         <v>4115</v>
@@ -12668,15 +12528,12 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>678</v>
       </c>
       <c r="B375" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C375" t="s">
-        <v>677</v>
+        <v>1035</v>
       </c>
       <c r="D375">
         <v>4118</v>
@@ -12694,15 +12551,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>678</v>
       </c>
       <c r="B376" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C376" t="s">
-        <v>677</v>
+        <v>1036</v>
       </c>
       <c r="D376">
         <v>4122</v>
@@ -12720,15 +12574,12 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>678</v>
       </c>
       <c r="B377" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C377" t="s">
-        <v>677</v>
+        <v>1037</v>
       </c>
       <c r="D377">
         <v>4123</v>
@@ -12746,15 +12597,12 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>678</v>
       </c>
       <c r="B378" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C378" t="s">
-        <v>677</v>
+        <v>1038</v>
       </c>
       <c r="D378">
         <v>4124</v>
@@ -12772,15 +12620,12 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>678</v>
       </c>
       <c r="B379" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C379" t="s">
-        <v>677</v>
+        <v>1039</v>
       </c>
       <c r="D379">
         <v>4127</v>
@@ -12798,15 +12643,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>678</v>
       </c>
       <c r="B380" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C380" t="s">
-        <v>677</v>
+        <v>1040</v>
       </c>
       <c r="D380">
         <v>4130</v>
@@ -12824,15 +12666,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>678</v>
       </c>
       <c r="B381" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C381" t="s">
-        <v>677</v>
+        <v>1041</v>
       </c>
       <c r="D381">
         <v>4134</v>
@@ -12850,15 +12689,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>678</v>
       </c>
       <c r="B382" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C382" t="s">
-        <v>677</v>
+        <v>1042</v>
       </c>
       <c r="D382">
         <v>4134</v>
@@ -12876,15 +12712,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>678</v>
       </c>
       <c r="B383" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C383" t="s">
-        <v>677</v>
+        <v>1043</v>
       </c>
       <c r="D383">
         <v>4136</v>
@@ -12902,15 +12735,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>678</v>
       </c>
       <c r="B384" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C384" t="s">
-        <v>677</v>
+        <v>1044</v>
       </c>
       <c r="D384">
         <v>4137</v>
@@ -12928,15 +12758,12 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>678</v>
       </c>
       <c r="B385" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C385" t="s">
-        <v>677</v>
+        <v>1045</v>
       </c>
       <c r="D385">
         <v>4153</v>
@@ -12954,15 +12781,12 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>678</v>
       </c>
       <c r="B386" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C386" t="s">
-        <v>677</v>
+        <v>1046</v>
       </c>
       <c r="D386">
         <v>4155</v>
@@ -12980,15 +12804,12 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>678</v>
       </c>
       <c r="B387" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C387" t="s">
-        <v>677</v>
+        <v>1047</v>
       </c>
       <c r="D387">
         <v>4157</v>
@@ -13006,15 +12827,12 @@
         <v>921</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>678</v>
       </c>
       <c r="B388" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C388" t="s">
-        <v>677</v>
+        <v>1048</v>
       </c>
       <c r="D388">
         <v>4168</v>
@@ -13032,15 +12850,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>678</v>
       </c>
       <c r="B389" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C389" t="s">
-        <v>677</v>
+        <v>1049</v>
       </c>
       <c r="D389">
         <v>4169</v>
@@ -13058,15 +12873,12 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>678</v>
       </c>
       <c r="B390" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C390" t="s">
-        <v>677</v>
+        <v>1050</v>
       </c>
       <c r="D390">
         <v>4174</v>
@@ -13084,15 +12896,12 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>678</v>
       </c>
       <c r="B391" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C391" t="s">
-        <v>677</v>
+        <v>1051</v>
       </c>
       <c r="D391">
         <v>4179</v>
@@ -13110,15 +12919,12 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>678</v>
       </c>
       <c r="B392" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C392" t="s">
-        <v>677</v>
+        <v>1052</v>
       </c>
       <c r="D392">
         <v>4183</v>
@@ -13136,15 +12942,12 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>678</v>
       </c>
       <c r="B393" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C393" t="s">
-        <v>677</v>
+        <v>1053</v>
       </c>
       <c r="D393">
         <v>4184</v>
@@ -13162,15 +12965,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>678</v>
       </c>
       <c r="B394" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C394" t="s">
-        <v>677</v>
+        <v>1054</v>
       </c>
       <c r="D394">
         <v>4185</v>
@@ -13188,15 +12988,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>678</v>
       </c>
       <c r="B395" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C395" t="s">
-        <v>677</v>
+        <v>1055</v>
       </c>
       <c r="D395">
         <v>4186</v>
@@ -13214,15 +13011,12 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>678</v>
       </c>
       <c r="B396" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C396" t="s">
-        <v>677</v>
+        <v>1056</v>
       </c>
       <c r="D396">
         <v>4192</v>
@@ -13240,15 +13034,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>678</v>
       </c>
       <c r="B397" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C397" t="s">
-        <v>677</v>
+        <v>1057</v>
       </c>
       <c r="D397">
         <v>4194</v>
@@ -13266,15 +13057,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>678</v>
       </c>
       <c r="B398" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C398" t="s">
-        <v>677</v>
+        <v>1058</v>
       </c>
       <c r="D398">
         <v>4195</v>
@@ -13292,15 +13080,12 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>678</v>
       </c>
       <c r="B399" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C399" t="s">
-        <v>677</v>
+        <v>1059</v>
       </c>
       <c r="D399">
         <v>4196</v>
@@ -13318,15 +13103,12 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>678</v>
       </c>
       <c r="B400" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C400" t="s">
-        <v>677</v>
+        <v>1060</v>
       </c>
       <c r="D400">
         <v>4199</v>
@@ -13344,15 +13126,12 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>678</v>
       </c>
       <c r="B401" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C401" t="s">
-        <v>677</v>
+        <v>1061</v>
       </c>
       <c r="D401">
         <v>4202</v>
@@ -13370,15 +13149,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>678</v>
       </c>
       <c r="B402" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C402" t="s">
-        <v>677</v>
+        <v>1062</v>
       </c>
       <c r="D402">
         <v>4205</v>
@@ -13396,15 +13172,12 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>678</v>
       </c>
       <c r="B403" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C403" t="s">
-        <v>677</v>
+        <v>1063</v>
       </c>
       <c r="D403">
         <v>4212</v>
@@ -13422,15 +13195,12 @@
         <v>819</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>678</v>
       </c>
       <c r="B404" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C404" t="s">
-        <v>677</v>
+        <v>1064</v>
       </c>
       <c r="D404">
         <v>4213</v>
@@ -13448,15 +13218,12 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>678</v>
       </c>
       <c r="B405" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C405" t="s">
-        <v>677</v>
+        <v>1065</v>
       </c>
       <c r="D405">
         <v>4214</v>
@@ -13474,15 +13241,12 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>678</v>
       </c>
       <c r="B406" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C406" t="s">
-        <v>677</v>
+        <v>1066</v>
       </c>
       <c r="D406">
         <v>4215</v>
@@ -13500,15 +13264,12 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>678</v>
       </c>
       <c r="B407" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C407" t="s">
-        <v>677</v>
+        <v>1067</v>
       </c>
       <c r="D407">
         <v>4218</v>
@@ -13526,15 +13287,12 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>678</v>
       </c>
       <c r="B408" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C408" t="s">
-        <v>677</v>
+        <v>1068</v>
       </c>
       <c r="D408">
         <v>4220</v>
@@ -13552,15 +13310,12 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>678</v>
       </c>
       <c r="B409" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C409" t="s">
-        <v>677</v>
+        <v>1069</v>
       </c>
       <c r="D409">
         <v>4227</v>
@@ -13578,15 +13333,12 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>678</v>
       </c>
       <c r="B410" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C410" t="s">
-        <v>677</v>
+        <v>1070</v>
       </c>
       <c r="D410">
         <v>4228</v>
@@ -13604,15 +13356,12 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>678</v>
       </c>
       <c r="B411" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C411" t="s">
-        <v>677</v>
+        <v>1071</v>
       </c>
       <c r="D411">
         <v>4234</v>
@@ -13630,15 +13379,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>678</v>
       </c>
       <c r="B412" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C412" t="s">
-        <v>677</v>
+        <v>1072</v>
       </c>
       <c r="D412">
         <v>4235</v>
@@ -13656,15 +13402,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>678</v>
       </c>
       <c r="B413" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C413" t="s">
-        <v>677</v>
+        <v>1073</v>
       </c>
       <c r="D413">
         <v>4236</v>
@@ -13682,15 +13425,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>681</v>
       </c>
       <c r="B414" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C414" t="s">
-        <v>677</v>
+        <v>1164</v>
       </c>
       <c r="D414">
         <v>4237</v>
@@ -13708,15 +13448,12 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>678</v>
       </c>
       <c r="B415" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C415" t="s">
-        <v>677</v>
+        <v>1074</v>
       </c>
       <c r="D415">
         <v>4239</v>
@@ -13734,15 +13471,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>678</v>
       </c>
       <c r="B416" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C416" t="s">
-        <v>677</v>
+        <v>1075</v>
       </c>
       <c r="D416">
         <v>4245</v>
@@ -13760,15 +13494,12 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>678</v>
       </c>
       <c r="B417" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C417" t="s">
-        <v>677</v>
+        <v>1076</v>
       </c>
       <c r="D417">
         <v>4247</v>
@@ -13786,15 +13517,12 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>678</v>
       </c>
       <c r="B418" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C418" t="s">
-        <v>677</v>
+        <v>1077</v>
       </c>
       <c r="D418">
         <v>4252</v>
@@ -13812,15 +13540,12 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>678</v>
       </c>
       <c r="B419" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C419" t="s">
-        <v>677</v>
+        <v>1078</v>
       </c>
       <c r="D419">
         <v>4260</v>
@@ -13838,15 +13563,12 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>678</v>
       </c>
       <c r="B420" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C420" t="s">
-        <v>677</v>
+        <v>1079</v>
       </c>
       <c r="D420">
         <v>4264</v>
@@ -13864,15 +13586,12 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>678</v>
       </c>
       <c r="B421" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C421" t="s">
-        <v>677</v>
+        <v>1080</v>
       </c>
       <c r="D421">
         <v>4265</v>
@@ -13890,15 +13609,12 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>678</v>
       </c>
       <c r="B422" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C422" t="s">
-        <v>677</v>
+        <v>1081</v>
       </c>
       <c r="D422">
         <v>4266</v>
@@ -13916,15 +13632,12 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>678</v>
       </c>
       <c r="B423" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C423" t="s">
-        <v>677</v>
+        <v>1082</v>
       </c>
       <c r="D423">
         <v>4267</v>
@@ -13942,15 +13655,12 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>678</v>
       </c>
       <c r="B424" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C424" t="s">
-        <v>677</v>
+        <v>1083</v>
       </c>
       <c r="D424">
         <v>4276</v>
@@ -13968,15 +13678,12 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>678</v>
       </c>
       <c r="B425" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C425" t="s">
-        <v>677</v>
+        <v>1084</v>
       </c>
       <c r="D425">
         <v>4277</v>
@@ -13994,15 +13701,12 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>678</v>
       </c>
       <c r="B426" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C426" t="s">
-        <v>677</v>
+        <v>1085</v>
       </c>
       <c r="D426">
         <v>4281</v>
@@ -14020,15 +13724,12 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>678</v>
       </c>
       <c r="B427" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C427" t="s">
-        <v>677</v>
+        <v>1086</v>
       </c>
       <c r="D427">
         <v>4282</v>
@@ -14046,15 +13747,12 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>678</v>
       </c>
       <c r="B428" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C428" t="s">
-        <v>677</v>
+        <v>1087</v>
       </c>
       <c r="D428">
         <v>4283</v>
@@ -14072,15 +13770,12 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>678</v>
       </c>
       <c r="B429" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C429" t="s">
-        <v>677</v>
+        <v>1088</v>
       </c>
       <c r="D429">
         <v>4284</v>
@@ -14098,15 +13793,12 @@
         <v>944</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>678</v>
       </c>
       <c r="B430" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C430" t="s">
-        <v>677</v>
+        <v>1089</v>
       </c>
       <c r="D430">
         <v>4290</v>
@@ -14124,15 +13816,12 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>678</v>
       </c>
       <c r="B431" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C431" t="s">
-        <v>677</v>
+        <v>1090</v>
       </c>
       <c r="D431">
         <v>4291</v>
@@ -14150,15 +13839,12 @@
         <v>853</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>678</v>
       </c>
       <c r="B432" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C432" t="s">
-        <v>677</v>
+        <v>1091</v>
       </c>
       <c r="D432">
         <v>4293</v>
@@ -14176,15 +13862,12 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>678</v>
       </c>
       <c r="B433" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C433" t="s">
-        <v>677</v>
+        <v>1092</v>
       </c>
       <c r="D433">
         <v>4295</v>
@@ -14202,15 +13885,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>678</v>
       </c>
       <c r="B434" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C434" t="s">
-        <v>677</v>
+        <v>1093</v>
       </c>
       <c r="D434">
         <v>4297</v>
@@ -14228,15 +13908,12 @@
         <v>760</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>678</v>
       </c>
       <c r="B435" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C435" t="s">
-        <v>677</v>
+        <v>1094</v>
       </c>
       <c r="D435">
         <v>4310</v>
@@ -14254,15 +13931,12 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>678</v>
       </c>
       <c r="B436" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C436" t="s">
-        <v>677</v>
+        <v>1095</v>
       </c>
       <c r="D436">
         <v>4311</v>
@@ -14280,15 +13954,12 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>678</v>
       </c>
       <c r="B437" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C437" t="s">
-        <v>677</v>
+        <v>1096</v>
       </c>
       <c r="D437">
         <v>4313</v>
@@ -14306,15 +13977,12 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>678</v>
       </c>
       <c r="B438" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C438" t="s">
-        <v>677</v>
+        <v>1097</v>
       </c>
       <c r="D438">
         <v>4314</v>
@@ -14332,15 +14000,12 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>678</v>
       </c>
       <c r="B439" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C439" t="s">
-        <v>677</v>
+        <v>1098</v>
       </c>
       <c r="D439">
         <v>4315</v>
@@ -14358,15 +14023,12 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>678</v>
       </c>
       <c r="B440" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C440" t="s">
-        <v>677</v>
+        <v>1099</v>
       </c>
       <c r="D440">
         <v>4316</v>
@@ -14384,15 +14046,12 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>678</v>
       </c>
       <c r="B441" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C441" t="s">
-        <v>677</v>
+        <v>1100</v>
       </c>
       <c r="D441">
         <v>4317</v>
@@ -14410,15 +14069,12 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>678</v>
       </c>
       <c r="B442" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C442" t="s">
-        <v>677</v>
+        <v>1101</v>
       </c>
       <c r="D442">
         <v>4364</v>
@@ -14436,15 +14092,12 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>678</v>
       </c>
       <c r="B443" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C443" t="s">
-        <v>677</v>
+        <v>1102</v>
       </c>
       <c r="D443">
         <v>4372</v>
@@ -14462,15 +14115,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>678</v>
       </c>
       <c r="B444" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C444" t="s">
-        <v>677</v>
+        <v>1103</v>
       </c>
       <c r="D444">
         <v>4387</v>
@@ -14488,15 +14138,12 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>678</v>
       </c>
       <c r="B445" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C445" t="s">
-        <v>677</v>
+        <v>1104</v>
       </c>
       <c r="D445">
         <v>4389</v>
@@ -14514,15 +14161,12 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>678</v>
       </c>
       <c r="B446" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C446" t="s">
-        <v>677</v>
+        <v>1105</v>
       </c>
       <c r="D446">
         <v>4390</v>
@@ -14540,15 +14184,12 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>678</v>
       </c>
       <c r="B447" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C447" t="s">
-        <v>677</v>
+        <v>1106</v>
       </c>
       <c r="D447">
         <v>4393</v>
@@ -14566,15 +14207,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>678</v>
       </c>
       <c r="B448" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C448" t="s">
-        <v>677</v>
+        <v>1107</v>
       </c>
       <c r="D448">
         <v>4409</v>
@@ -14592,15 +14230,12 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>678</v>
       </c>
       <c r="B449" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C449" t="s">
-        <v>677</v>
+        <v>1108</v>
       </c>
       <c r="D449">
         <v>4418</v>
@@ -14618,15 +14253,12 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>678</v>
       </c>
       <c r="B450" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C450" t="s">
-        <v>677</v>
+        <v>1109</v>
       </c>
       <c r="D450">
         <v>4421</v>
@@ -14644,15 +14276,12 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>678</v>
       </c>
       <c r="B451" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C451" t="s">
-        <v>677</v>
+        <v>1110</v>
       </c>
       <c r="D451">
         <v>4425</v>
@@ -14670,15 +14299,12 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>678</v>
       </c>
       <c r="B452" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C452" t="s">
-        <v>677</v>
+        <v>1111</v>
       </c>
       <c r="D452">
         <v>4429</v>
@@ -14696,15 +14322,12 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>678</v>
       </c>
       <c r="B453" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C453" t="s">
-        <v>677</v>
+        <v>1112</v>
       </c>
       <c r="D453">
         <v>4436</v>
@@ -14722,15 +14345,12 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>678</v>
       </c>
       <c r="B454" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C454" t="s">
-        <v>677</v>
+        <v>1113</v>
       </c>
       <c r="D454">
         <v>4441</v>
@@ -14748,15 +14368,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>678</v>
       </c>
       <c r="B455" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C455" t="s">
-        <v>677</v>
+        <v>1114</v>
       </c>
       <c r="D455">
         <v>4450</v>
@@ -14774,15 +14391,12 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>678</v>
       </c>
       <c r="B456" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C456" t="s">
-        <v>677</v>
+        <v>1115</v>
       </c>
       <c r="D456">
         <v>4452</v>
@@ -14800,15 +14414,12 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>678</v>
       </c>
       <c r="B457" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C457" t="s">
-        <v>677</v>
+        <v>1116</v>
       </c>
       <c r="D457">
         <v>4456</v>
@@ -14826,15 +14437,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>678</v>
       </c>
       <c r="B458" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C458" t="s">
-        <v>677</v>
+        <v>1117</v>
       </c>
       <c r="D458">
         <v>4466</v>
@@ -14852,15 +14460,12 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>678</v>
       </c>
       <c r="B459" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C459" t="s">
-        <v>677</v>
+        <v>1118</v>
       </c>
       <c r="D459">
         <v>4473</v>
@@ -14878,15 +14483,12 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>678</v>
       </c>
       <c r="B460" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C460" t="s">
-        <v>677</v>
+        <v>1119</v>
       </c>
       <c r="D460">
         <v>4479</v>
@@ -14904,15 +14506,12 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>678</v>
       </c>
       <c r="B461" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C461" t="s">
-        <v>677</v>
+        <v>1120</v>
       </c>
       <c r="D461">
         <v>4483</v>
@@ -14930,15 +14529,12 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>678</v>
       </c>
       <c r="B462" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C462" t="s">
-        <v>677</v>
+        <v>1121</v>
       </c>
       <c r="D462">
         <v>4485</v>
@@ -14956,15 +14552,12 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>681</v>
       </c>
       <c r="B463" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C463" t="s">
-        <v>677</v>
+        <v>1165</v>
       </c>
       <c r="D463">
         <v>4486</v>
@@ -14982,15 +14575,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>678</v>
       </c>
       <c r="B464" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C464" t="s">
-        <v>677</v>
+        <v>1122</v>
       </c>
       <c r="D464">
         <v>4534</v>
@@ -15008,15 +14598,12 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>678</v>
       </c>
       <c r="B465" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C465" t="s">
-        <v>677</v>
+        <v>1123</v>
       </c>
       <c r="D465">
         <v>4535</v>
@@ -15034,15 +14621,12 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>678</v>
       </c>
       <c r="B466" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C466" t="s">
-        <v>677</v>
+        <v>1124</v>
       </c>
       <c r="D466">
         <v>4539</v>
@@ -15060,15 +14644,12 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>678</v>
       </c>
       <c r="B467" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C467" t="s">
-        <v>677</v>
+        <v>1125</v>
       </c>
       <c r="D467">
         <v>4541</v>
@@ -15086,15 +14667,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>678</v>
       </c>
       <c r="B468" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C468" t="s">
-        <v>677</v>
+        <v>1126</v>
       </c>
       <c r="D468">
         <v>4545</v>
@@ -15112,15 +14690,12 @@
         <v>585</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>678</v>
       </c>
       <c r="B469" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C469" t="s">
-        <v>677</v>
+        <v>1127</v>
       </c>
       <c r="D469">
         <v>4546</v>
@@ -15138,15 +14713,12 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>678</v>
       </c>
       <c r="B470" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C470" t="s">
-        <v>677</v>
+        <v>1128</v>
       </c>
       <c r="D470">
         <v>4559</v>
@@ -15164,15 +14736,12 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>678</v>
       </c>
       <c r="B471" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C471" t="s">
-        <v>677</v>
+        <v>1129</v>
       </c>
       <c r="D471">
         <v>4567</v>
@@ -15190,15 +14759,12 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>678</v>
       </c>
       <c r="B472" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C472" t="s">
-        <v>677</v>
+        <v>1130</v>
       </c>
       <c r="D472">
         <v>4579</v>
@@ -15216,15 +14782,12 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>678</v>
       </c>
       <c r="B473" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C473" t="s">
-        <v>677</v>
+        <v>1131</v>
       </c>
       <c r="D473">
         <v>4586</v>
@@ -15242,15 +14805,12 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>681</v>
       </c>
       <c r="B474" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C474" t="s">
-        <v>677</v>
+        <v>1166</v>
       </c>
       <c r="D474">
         <v>4602</v>
@@ -15268,15 +14828,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>681</v>
       </c>
       <c r="B475" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C475" t="s">
-        <v>677</v>
+        <v>1167</v>
       </c>
       <c r="D475">
         <v>4603</v>
@@ -15294,15 +14851,12 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>678</v>
       </c>
       <c r="B476" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C476" t="s">
-        <v>677</v>
+        <v>1132</v>
       </c>
       <c r="D476">
         <v>4611</v>
@@ -15320,15 +14874,12 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>678</v>
       </c>
       <c r="B477" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C477" t="s">
-        <v>677</v>
+        <v>1133</v>
       </c>
       <c r="D477">
         <v>4613</v>
@@ -15346,15 +14897,12 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>678</v>
       </c>
       <c r="B478" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C478" t="s">
-        <v>677</v>
+        <v>1134</v>
       </c>
       <c r="D478">
         <v>4618</v>
@@ -15372,15 +14920,12 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>678</v>
       </c>
       <c r="B479" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C479" t="s">
-        <v>677</v>
+        <v>1135</v>
       </c>
       <c r="D479">
         <v>4622</v>
@@ -15398,15 +14943,12 @@
         <v>826</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>678</v>
       </c>
       <c r="B480" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C480" t="s">
-        <v>677</v>
+        <v>1136</v>
       </c>
       <c r="D480">
         <v>4625</v>
@@ -15424,15 +14966,12 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>678</v>
       </c>
       <c r="B481" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C481" t="s">
-        <v>677</v>
+        <v>1137</v>
       </c>
       <c r="D481">
         <v>4630</v>
@@ -15450,15 +14989,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>678</v>
       </c>
       <c r="B482" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C482" t="s">
-        <v>677</v>
+        <v>1138</v>
       </c>
       <c r="D482">
         <v>4633</v>
@@ -15476,15 +15012,12 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>678</v>
       </c>
       <c r="B483" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C483" t="s">
-        <v>677</v>
+        <v>1139</v>
       </c>
       <c r="D483">
         <v>4635</v>
@@ -15502,15 +15035,12 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>678</v>
       </c>
       <c r="B484" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C484" t="s">
-        <v>677</v>
+        <v>1140</v>
       </c>
       <c r="D484">
         <v>4638</v>
@@ -15528,15 +15058,12 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>678</v>
       </c>
       <c r="B485" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C485" t="s">
-        <v>677</v>
+        <v>1141</v>
       </c>
       <c r="D485">
         <v>4653</v>
@@ -15554,15 +15081,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>678</v>
       </c>
       <c r="B486" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C486" t="s">
-        <v>677</v>
+        <v>1142</v>
       </c>
       <c r="D486">
         <v>4660</v>
@@ -15580,15 +15104,12 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>678</v>
       </c>
       <c r="B487" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C487" t="s">
-        <v>677</v>
+        <v>1143</v>
       </c>
       <c r="D487">
         <v>4666</v>
@@ -15606,15 +15127,12 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>678</v>
       </c>
       <c r="B488" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C488" t="s">
-        <v>677</v>
+        <v>1144</v>
       </c>
       <c r="D488">
         <v>4667</v>
@@ -15632,15 +15150,12 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>678</v>
       </c>
       <c r="B489" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C489" t="s">
-        <v>677</v>
+        <v>1145</v>
       </c>
       <c r="D489">
         <v>4668</v>
@@ -15658,15 +15173,12 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>678</v>
       </c>
       <c r="B490" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C490" t="s">
-        <v>677</v>
+        <v>1146</v>
       </c>
       <c r="D490">
         <v>4691</v>
@@ -15684,15 +15196,12 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>678</v>
       </c>
       <c r="B491" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C491" t="s">
-        <v>677</v>
+        <v>1147</v>
       </c>
       <c r="D491">
         <v>4695</v>
@@ -15711,7 +15220,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A491" xr:uid="{342F00F0-EE68-F143-A911-FE1EA854A2ED}"/>
+  <autoFilter ref="A1:A491" xr:uid="{342F00F0-EE68-F143-A911-FE1EA854A2ED}">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/vrelay_2022.xlsx
+++ b/KatalonData/vrelay_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6B1E4-1649-497A-A19A-0F5CD052C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A83DD6-1F91-4299-88D2-F9909B05086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A809D80D-B297-1A48-B33C-8C379702CACE}"/>
+    <workbookView xWindow="-17880" yWindow="1950" windowWidth="17010" windowHeight="13935" xr2:uid="{A809D80D-B297-1A48-B33C-8C379702CACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3912,7 +3912,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342F00F0-EE68-F143-A911-FE1EA854A2ED}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3955,7 +3954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>678</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>678</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>678</v>
       </c>
@@ -4047,7 +4046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>678</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>678</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>678</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>678</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>678</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>678</v>
       </c>
@@ -4185,7 +4184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>678</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>678</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>681</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>678</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>678</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>681</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>678</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>678</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>678</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>678</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>678</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>678</v>
       </c>
@@ -4461,7 +4460,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>678</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>678</v>
       </c>
@@ -4507,7 +4506,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>678</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>678</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>678</v>
       </c>
@@ -4576,7 +4575,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>678</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>678</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>678</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>678</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>678</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>678</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>678</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>678</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>681</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>678</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>678</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>678</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>678</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>678</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>678</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>678</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>678</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>678</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>678</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>678</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>678</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>678</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>678</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>678</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>678</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>678</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>678</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>678</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>678</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>678</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>678</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>678</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>678</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>678</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>678</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>678</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>678</v>
       </c>
@@ -5427,7 +5426,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>678</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>678</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>678</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>678</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>678</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>678</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>678</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>678</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>678</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>678</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>678</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>678</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>678</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>681</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>678</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>678</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>678</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>678</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>678</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>678</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>678</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>678</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>678</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>678</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>678</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>678</v>
       </c>
@@ -6048,7 +6047,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>678</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>678</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>678</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>678</v>
       </c>
@@ -6163,7 +6162,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>678</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>678</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>678</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>678</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>678</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>678</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>678</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>678</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>678</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>678</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>678</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>678</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>678</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>678</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>678</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>678</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>681</v>
       </c>
@@ -6597,7 +6596,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>678</v>
       </c>
@@ -6620,7 +6619,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>678</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>678</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>678</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>678</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>678</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>678</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>678</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>678</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>678</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>678</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>678</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>678</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>678</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>678</v>
       </c>
@@ -6942,7 +6941,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>678</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>681</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>678</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>678</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>678</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>678</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>678</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>678</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>678</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>681</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>678</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>678</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>678</v>
       </c>
@@ -7241,7 +7240,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>678</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>678</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>678</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>681</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>678</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>678</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>678</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>678</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>678</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>678</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>678</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>678</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>678</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>678</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>678</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>678</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>678</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>678</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>678</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>678</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>678</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>678</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>678</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>678</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>678</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>678</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>678</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>678</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>678</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>678</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>678</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>678</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>678</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>678</v>
       </c>
@@ -8043,7 +8042,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>678</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>678</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>678</v>
       </c>
@@ -8112,7 +8111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>678</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>678</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>678</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>678</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>678</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>678</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>678</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>678</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>678</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>678</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>678</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>678</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>678</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>678</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>678</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>678</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>678</v>
       </c>
@@ -8503,7 +8502,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>681</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>678</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>678</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>678</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>678</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>678</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>678</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>678</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>678</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>678</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>678</v>
       </c>
@@ -8756,7 +8755,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>681</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>678</v>
       </c>
@@ -8802,7 +8801,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>678</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>678</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>678</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>678</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>678</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>678</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>678</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>678</v>
       </c>
@@ -8986,7 +8985,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>678</v>
       </c>
@@ -9009,7 +9008,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>678</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>678</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>678</v>
       </c>
@@ -9078,7 +9077,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>678</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>678</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>678</v>
       </c>
@@ -9147,7 +9146,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>678</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>678</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>678</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>678</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>678</v>
       </c>
@@ -9262,7 +9261,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>678</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>678</v>
       </c>
@@ -9308,7 +9307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>678</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>678</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>678</v>
       </c>
@@ -9377,7 +9376,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>678</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>678</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>678</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>678</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>678</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>678</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>678</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>678</v>
       </c>
@@ -9561,7 +9560,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>678</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>678</v>
       </c>
@@ -9607,7 +9606,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>678</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>678</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>678</v>
       </c>
@@ -9676,7 +9675,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>678</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>678</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>678</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>678</v>
       </c>
@@ -9768,7 +9767,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>678</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>678</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>678</v>
       </c>
@@ -9837,7 +9836,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>678</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>678</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>678</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>678</v>
       </c>
@@ -9929,7 +9928,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>678</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>678</v>
       </c>
@@ -9975,7 +9974,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>678</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>678</v>
       </c>
@@ -10021,7 +10020,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>678</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>678</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>678</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>678</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>678</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>678</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>678</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>678</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>678</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>678</v>
       </c>
@@ -10251,7 +10250,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>678</v>
       </c>
@@ -10274,7 +10273,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>678</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>678</v>
       </c>
@@ -10320,7 +10319,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>678</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>678</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>678</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>678</v>
       </c>
@@ -10412,7 +10411,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>678</v>
       </c>
@@ -10435,7 +10434,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>681</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>678</v>
       </c>
@@ -10481,7 +10480,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>678</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>678</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>678</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>678</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>678</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>678</v>
       </c>
@@ -10619,7 +10618,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>678</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>678</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>678</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>678</v>
       </c>
@@ -10711,7 +10710,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>678</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>678</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>678</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>678</v>
       </c>
@@ -10803,7 +10802,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>678</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>678</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>678</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>678</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>678</v>
       </c>
@@ -10918,7 +10917,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>678</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>678</v>
       </c>
@@ -10964,7 +10963,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>678</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>678</v>
       </c>
@@ -11010,7 +11009,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>678</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>678</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>678</v>
       </c>
@@ -11079,7 +11078,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>678</v>
       </c>
@@ -11102,7 +11101,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>678</v>
       </c>
@@ -11125,7 +11124,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>678</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>678</v>
       </c>
@@ -11171,7 +11170,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>678</v>
       </c>
@@ -11194,7 +11193,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>678</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>678</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>678</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>678</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>678</v>
       </c>
@@ -11309,7 +11308,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>678</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>678</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>678</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>678</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>678</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>678</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>678</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>678</v>
       </c>
@@ -11493,7 +11492,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>678</v>
       </c>
@@ -11516,7 +11515,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>678</v>
       </c>
@@ -11539,7 +11538,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>678</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>678</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>678</v>
       </c>
@@ -11608,7 +11607,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>678</v>
       </c>
@@ -11631,7 +11630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>678</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>678</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>678</v>
       </c>
@@ -11700,7 +11699,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>678</v>
       </c>
@@ -11723,7 +11722,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>678</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>678</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>678</v>
       </c>
@@ -11792,7 +11791,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>678</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>678</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>678</v>
       </c>
@@ -11861,7 +11860,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>678</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>678</v>
       </c>
@@ -11907,7 +11906,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>678</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>678</v>
       </c>
@@ -11953,7 +11952,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>678</v>
       </c>
@@ -11976,7 +11975,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>678</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>678</v>
       </c>
@@ -12022,7 +12021,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>678</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>678</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>678</v>
       </c>
@@ -12091,7 +12090,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>678</v>
       </c>
@@ -12114,7 +12113,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>678</v>
       </c>
@@ -12137,7 +12136,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>681</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>678</v>
       </c>
@@ -12183,7 +12182,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>681</v>
       </c>
@@ -12206,7 +12205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>681</v>
       </c>
@@ -12229,7 +12228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>678</v>
       </c>
@@ -12252,7 +12251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>681</v>
       </c>
@@ -12275,7 +12274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>678</v>
       </c>
@@ -12298,7 +12297,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>678</v>
       </c>
@@ -12321,7 +12320,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>678</v>
       </c>
@@ -12344,7 +12343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>678</v>
       </c>
@@ -12367,7 +12366,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>678</v>
       </c>
@@ -12390,7 +12389,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>678</v>
       </c>
@@ -12413,7 +12412,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>678</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>678</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>678</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>678</v>
       </c>
@@ -12505,7 +12504,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>678</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>678</v>
       </c>
@@ -12551,7 +12550,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>678</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>678</v>
       </c>
@@ -12597,7 +12596,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>678</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>678</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>678</v>
       </c>
@@ -12666,7 +12665,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>678</v>
       </c>
@@ -12689,7 +12688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>678</v>
       </c>
@@ -12712,7 +12711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>678</v>
       </c>
@@ -12735,7 +12734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>678</v>
       </c>
@@ -12758,7 +12757,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>678</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>678</v>
       </c>
@@ -12804,7 +12803,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>678</v>
       </c>
@@ -12827,7 +12826,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>678</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>678</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>678</v>
       </c>
@@ -12896,7 +12895,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>678</v>
       </c>
@@ -12919,7 +12918,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>678</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>678</v>
       </c>
@@ -12965,7 +12964,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>678</v>
       </c>
@@ -12988,7 +12987,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>678</v>
       </c>
@@ -13011,7 +13010,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>678</v>
       </c>
@@ -13034,7 +13033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>678</v>
       </c>
@@ -13057,7 +13056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>678</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>678</v>
       </c>
@@ -13103,7 +13102,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>678</v>
       </c>
@@ -13126,7 +13125,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>678</v>
       </c>
@@ -13149,7 +13148,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>678</v>
       </c>
@@ -13172,7 +13171,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>678</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>678</v>
       </c>
@@ -13218,7 +13217,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>678</v>
       </c>
@@ -13241,7 +13240,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>678</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>678</v>
       </c>
@@ -13287,7 +13286,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>678</v>
       </c>
@@ -13310,7 +13309,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>678</v>
       </c>
@@ -13333,7 +13332,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>678</v>
       </c>
@@ -13356,7 +13355,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>678</v>
       </c>
@@ -13379,7 +13378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>678</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>678</v>
       </c>
@@ -13425,7 +13424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>681</v>
       </c>
@@ -13448,7 +13447,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>678</v>
       </c>
@@ -13471,7 +13470,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>678</v>
       </c>
@@ -13494,7 +13493,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>678</v>
       </c>
@@ -13517,7 +13516,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>678</v>
       </c>
@@ -13540,7 +13539,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>678</v>
       </c>
@@ -13563,7 +13562,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>678</v>
       </c>
@@ -13586,7 +13585,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>678</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>678</v>
       </c>
@@ -13632,7 +13631,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>678</v>
       </c>
@@ -13655,7 +13654,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>678</v>
       </c>
@@ -13678,7 +13677,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>678</v>
       </c>
@@ -13701,7 +13700,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>678</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>678</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>678</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>678</v>
       </c>
@@ -13793,7 +13792,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>678</v>
       </c>
@@ -13816,7 +13815,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>678</v>
       </c>
@@ -13839,7 +13838,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>678</v>
       </c>
@@ -13862,7 +13861,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>678</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>678</v>
       </c>
@@ -13908,7 +13907,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>678</v>
       </c>
@@ -13931,7 +13930,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>678</v>
       </c>
@@ -13954,7 +13953,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>678</v>
       </c>
@@ -13977,7 +13976,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>678</v>
       </c>
@@ -14000,7 +13999,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>678</v>
       </c>
@@ -14023,7 +14022,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>678</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>678</v>
       </c>
@@ -14069,7 +14068,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>678</v>
       </c>
@@ -14092,7 +14091,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>678</v>
       </c>
@@ -14115,7 +14114,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>678</v>
       </c>
@@ -14138,7 +14137,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>678</v>
       </c>
@@ -14161,7 +14160,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>678</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>678</v>
       </c>
@@ -14207,7 +14206,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>678</v>
       </c>
@@ -14230,7 +14229,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>678</v>
       </c>
@@ -14253,7 +14252,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>678</v>
       </c>
@@ -14276,7 +14275,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>678</v>
       </c>
@@ -14299,7 +14298,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>678</v>
       </c>
@@ -14322,7 +14321,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>678</v>
       </c>
@@ -14345,7 +14344,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>678</v>
       </c>
@@ -14368,7 +14367,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>678</v>
       </c>
@@ -14391,7 +14390,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>678</v>
       </c>
@@ -14414,7 +14413,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>678</v>
       </c>
@@ -14437,7 +14436,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>678</v>
       </c>
@@ -14460,7 +14459,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>678</v>
       </c>
@@ -14483,7 +14482,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>678</v>
       </c>
@@ -14506,7 +14505,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>678</v>
       </c>
@@ -14529,7 +14528,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>678</v>
       </c>
@@ -14552,7 +14551,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>681</v>
       </c>
@@ -14575,7 +14574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>678</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>678</v>
       </c>
@@ -14621,7 +14620,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>678</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>678</v>
       </c>
@@ -14667,7 +14666,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>678</v>
       </c>
@@ -14690,7 +14689,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>678</v>
       </c>
@@ -14713,7 +14712,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>678</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>678</v>
       </c>
@@ -14759,7 +14758,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>678</v>
       </c>
@@ -14782,7 +14781,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>678</v>
       </c>
@@ -14805,7 +14804,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>681</v>
       </c>
@@ -14828,7 +14827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>681</v>
       </c>
@@ -14851,7 +14850,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>678</v>
       </c>
@@ -14874,7 +14873,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>678</v>
       </c>
@@ -14897,7 +14896,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>678</v>
       </c>
@@ -14920,7 +14919,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>678</v>
       </c>
@@ -14943,7 +14942,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>678</v>
       </c>
@@ -14966,7 +14965,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>678</v>
       </c>
@@ -14989,7 +14988,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>678</v>
       </c>
@@ -15012,7 +15011,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>678</v>
       </c>
@@ -15035,7 +15034,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>678</v>
       </c>
@@ -15058,7 +15057,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>678</v>
       </c>
@@ -15081,7 +15080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>678</v>
       </c>
@@ -15104,7 +15103,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>678</v>
       </c>
@@ -15127,7 +15126,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>678</v>
       </c>
@@ -15150,7 +15149,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>678</v>
       </c>
@@ -15173,7 +15172,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>678</v>
       </c>
@@ -15196,7 +15195,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>678</v>
       </c>
@@ -15220,11 +15219,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A491" xr:uid="{342F00F0-EE68-F143-A911-FE1EA854A2ED}">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A491" xr:uid="{342F00F0-EE68-F143-A911-FE1EA854A2ED}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>